--- a/biology/Médecine/3_lbs/3_lbs..xlsx
+++ b/biology/Médecine/3_lbs/3_lbs..xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,9 +490,11 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t xml:space="preserve">3 lbs. est une série télévisée américaine en huit épisodes de 42 minutes créée par Peter Ocko dont seulement trois épisodes ont été diffusés du 14 au 28 novembre 2006 sur le réseau CBS[1],[2]. Les cinq épisodes restants ont été diffusés à l'automne 2008 sur Universal HD.
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
+        <is>
+          <t xml:space="preserve">3 lbs. est une série télévisée américaine en huit épisodes de 42 minutes créée par Peter Ocko dont seulement trois épisodes ont été diffusés du 14 au 28 novembre 2006 sur le réseau CBS,. Les cinq épisodes restants ont été diffusés à l'automne 2008 sur Universal HD.
 Cette série est inédite dans tous les pays francophones.
 </t>
         </is>
@@ -513,6 +525,8 @@
         </is>
       </c>
       <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="n">
@@ -538,7 +552,9 @@
           <t>Fiche technique</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Titre : 3 lbs.
 Créateur : Peter Ocko (en)
@@ -573,12 +589,52 @@
       </c>
       <c r="F5" t="inlineStr">
         <is>
-          <t xml:space="preserve">Acteurs principaux
-Stanley Tucci : Dr Douglas Hanson
+          <t>Acteurs principaux</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>Stanley Tucci : Dr Douglas Hanson
 Mark Feuerstein : Dr Jonathan Seger
 Indira Varma : Dr Adrianne Holland
-Armando Riesco (en) : Dr Tom Flores
-Acteurs récurrents et invités
+Armando Riesco (en) : Dr Tom Flores</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>3_lbs.</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Médecine/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/3_lbs.</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>Distribution</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Acteurs récurrents et invités</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">
 Ken Wharton : Administrateur de l'hôpital
 Zabryna Guevara : Melania Ortiz (6 épisodes)
 Addison Timlin : Charlotte Hanson (3 épisodes)
@@ -612,31 +668,33 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
+    <row r="7">
+      <c r="A7" s="1" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
         <is>
           <t>3_lbs.</t>
         </is>
       </c>
-      <c r="C6" t="inlineStr">
+      <c r="C7" t="inlineStr">
         <is>
           <t>Portail:Médecine/Articles liés</t>
         </is>
       </c>
-      <c r="D6" t="inlineStr">
+      <c r="D7" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/3_lbs.</t>
         </is>
       </c>
-      <c r="E6" t="inlineStr">
+      <c r="E7" t="inlineStr">
         <is>
           <t>Commentaire</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Le titre fait référence au poids approximatif du cerveau humain, soit 3 livres.
 </t>
